--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample15/Sample-15.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample15/Sample-15.xlsx
@@ -213,18 +213,18 @@
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="sc2emr4r" xfId="1"/>
-    <cellStyle name="sc2emr4r_Alternate" xfId="2"/>
-    <cellStyle name="w1qmchqs" xfId="3"/>
-    <cellStyle name="w1qmchqs_Alternate" xfId="4"/>
-    <cellStyle name="d4h51ovk" xfId="5"/>
-    <cellStyle name="d4h51ovk_Alternate" xfId="6"/>
-    <cellStyle name="5xfwxwlo" xfId="7"/>
-    <cellStyle name="5xfwxwlo_Alternate" xfId="8"/>
-    <cellStyle name="wun5is2o" xfId="9"/>
-    <cellStyle name="wun5is2o_Alternate" xfId="10"/>
-    <cellStyle name="25af0rey" xfId="11"/>
-    <cellStyle name="25af0rey_Alternate" xfId="12"/>
+    <cellStyle name="k5r2rgj5" xfId="1"/>
+    <cellStyle name="k5r2rgj5_Alternate" xfId="2"/>
+    <cellStyle name="hcwggkj5" xfId="3"/>
+    <cellStyle name="hcwggkj5_Alternate" xfId="4"/>
+    <cellStyle name="cbkcyb4u" xfId="5"/>
+    <cellStyle name="cbkcyb4u_Alternate" xfId="6"/>
+    <cellStyle name="f0fvepkm" xfId="7"/>
+    <cellStyle name="f0fvepkm_Alternate" xfId="8"/>
+    <cellStyle name="mya1y2nn" xfId="9"/>
+    <cellStyle name="mya1y2nn_Alternate" xfId="10"/>
+    <cellStyle name="nqs0kkks" xfId="11"/>
+    <cellStyle name="nqs0kkks_Alternate" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample15/Sample-15.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample15/Sample-15.xlsx
@@ -213,18 +213,18 @@
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="k5r2rgj5" xfId="1"/>
-    <cellStyle name="k5r2rgj5_Alternate" xfId="2"/>
-    <cellStyle name="hcwggkj5" xfId="3"/>
-    <cellStyle name="hcwggkj5_Alternate" xfId="4"/>
-    <cellStyle name="cbkcyb4u" xfId="5"/>
-    <cellStyle name="cbkcyb4u_Alternate" xfId="6"/>
-    <cellStyle name="f0fvepkm" xfId="7"/>
-    <cellStyle name="f0fvepkm_Alternate" xfId="8"/>
-    <cellStyle name="mya1y2nn" xfId="9"/>
-    <cellStyle name="mya1y2nn_Alternate" xfId="10"/>
-    <cellStyle name="nqs0kkks" xfId="11"/>
-    <cellStyle name="nqs0kkks_Alternate" xfId="12"/>
+    <cellStyle name="hdtllper" xfId="1"/>
+    <cellStyle name="hdtllper_Alternate" xfId="2"/>
+    <cellStyle name="twav4scf" xfId="3"/>
+    <cellStyle name="twav4scf_Alternate" xfId="4"/>
+    <cellStyle name="3x2nvoob" xfId="5"/>
+    <cellStyle name="3x2nvoob_Alternate" xfId="6"/>
+    <cellStyle name="w1tzk2i3" xfId="7"/>
+    <cellStyle name="w1tzk2i3_Alternate" xfId="8"/>
+    <cellStyle name="zfd2xopl" xfId="9"/>
+    <cellStyle name="zfd2xopl_Alternate" xfId="10"/>
+    <cellStyle name="k4qh3ipb" xfId="11"/>
+    <cellStyle name="k4qh3ipb_Alternate" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
